--- a/bms.Web/uploads/muban/货架表/货架表.xlsx
+++ b/bms.Web/uploads/muban/货架表/货架表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A5CA8-45A9-4A17-94A2-7B35FE1F0C45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3682D-83AF-4697-88CC-7C1DE16E0EDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>货架编号</t>
+  </si>
   <si>
     <t>货架名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -360,18 +362,21 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4"/>
     </row>
   </sheetData>
